--- a/tmp/brands arial.xlsx
+++ b/tmp/brands arial.xlsx
@@ -12,6 +12,7 @@
     <sheet name="DP+DF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4502,7 +4503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4512,12 +4513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4534,10 +4529,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -28663,8 +28657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A751" sqref="A751:C751"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351:C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28686,13 +28680,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>3128</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -28730,13 +28724,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3857</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2564</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -28752,13 +28746,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>3942</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2711</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -28840,13 +28834,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>4284</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3334</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28873,13 +28867,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>4186</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3142</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -28895,24 +28889,24 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>3856</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2562</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>4054</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>2916</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>713</v>
       </c>
     </row>
@@ -29027,13 +29021,13 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>3625</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>2144</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -29049,13 +29043,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>4051</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>2909</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>711</v>
       </c>
     </row>
@@ -29093,13 +29087,13 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>3801</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>2442</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -29126,24 +29120,24 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>4184</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>3139</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>4188</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>3145</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -29159,13 +29153,13 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>5556</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>6673</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -29269,13 +29263,13 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>3347</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>1759</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -29423,13 +29417,13 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>3826</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>2492</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -29467,13 +29461,13 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>3271</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>1656</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -29544,13 +29538,13 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>4097</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>2974</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>725</v>
       </c>
     </row>
@@ -29599,13 +29593,13 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>3957</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>2740</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>652</v>
       </c>
     </row>
@@ -29676,13 +29670,13 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>4035</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>2880</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>701</v>
       </c>
     </row>
@@ -29698,13 +29692,13 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>5741</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>6811</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>881</v>
       </c>
     </row>
@@ -29720,13 +29714,13 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>3849</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>2551</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29742,13 +29736,13 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>3858</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>2567</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -29764,13 +29758,13 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>3770</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>2378</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -29841,13 +29835,13 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>3338</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>1747</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -29874,24 +29868,24 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>3823</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>2486</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>4235</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>3203</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -29918,13 +29912,13 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>3243</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>1618</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -29995,13 +29989,13 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>5789</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>6844</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>568</v>
       </c>
     </row>
@@ -30171,13 +30165,13 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>3567</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>2059</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -30259,13 +30253,13 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>4487</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>3882</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -30292,13 +30286,13 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>4486</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>3881</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -30391,13 +30385,13 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>5662</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>6730</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>878</v>
       </c>
     </row>
@@ -30501,13 +30495,13 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>3462</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>1925</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -30523,24 +30517,24 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>3843</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>2538</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>3723</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>2284</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -30589,13 +30583,13 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>3162</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>1511</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>551</v>
       </c>
     </row>
@@ -30633,13 +30627,13 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>5767</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>6824</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>889</v>
       </c>
     </row>
@@ -30655,13 +30649,13 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>4161</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>3102</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -30699,13 +30693,13 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>4023</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>2863</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>696</v>
       </c>
     </row>
@@ -30732,13 +30726,13 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>3806</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>2451</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -30853,13 +30847,13 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>3969</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>2765</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -30930,13 +30924,13 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>4072</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>2943</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -31029,13 +31023,13 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>3434</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>1885</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -31315,24 +31309,24 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>3645</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>2167</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="1" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>4041</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>2891</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -31359,13 +31353,13 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>3815</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>2469</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -31535,13 +31529,13 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>4040</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>2889</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -31557,13 +31551,13 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>4366</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>3601</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="1" t="s">
         <v>846</v>
       </c>
     </row>
@@ -31678,13 +31672,13 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>3679</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="1">
         <v>2210</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -31788,13 +31782,13 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>4183</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="1">
         <v>3137</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -31843,24 +31837,24 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>4553</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="1">
         <v>4155</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>3547</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="1">
         <v>2036</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="1" t="s">
         <v>933</v>
       </c>
     </row>
@@ -31920,24 +31914,24 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>4008</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="1">
         <v>2835</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>4196</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="1">
         <v>3157</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -32074,13 +32068,13 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>4558</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="1">
         <v>4169</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -32140,13 +32134,13 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>3803</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>2446</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -32305,13 +32299,13 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>4590</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="1">
         <v>4287</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="1" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -32338,13 +32332,13 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>4601</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="1">
         <v>4315</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -32448,13 +32442,13 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>3686</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>2222</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -32525,13 +32519,13 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>3515</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="1">
         <v>1996</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="1" t="s">
         <v>915</v>
       </c>
     </row>
@@ -32613,13 +32607,13 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>3370</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="1">
         <v>1787</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="1" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -32723,13 +32717,13 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>4105</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="1">
         <v>2984</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="1" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -32778,13 +32772,13 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>3778</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="1">
         <v>2396</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="1" t="s">
         <v>964</v>
       </c>
     </row>
@@ -32811,13 +32805,13 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>4595</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="1">
         <v>4296</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -32833,13 +32827,13 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>3458</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="1">
         <v>1919</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -32921,13 +32915,13 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>3473</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="1">
         <v>1940</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -32965,13 +32959,13 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>3317</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="1">
         <v>1719</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -33086,13 +33080,13 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>4586</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="1">
         <v>4272</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="1" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -33108,13 +33102,13 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>3201</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>1562</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -33163,13 +33157,13 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>3810</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="1">
         <v>2461</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="1" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -33262,13 +33256,13 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>3175</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="1">
         <v>1527</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="1" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -33295,13 +33289,13 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>4591</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="1">
         <v>4289</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -33372,13 +33366,13 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>4556</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="1">
         <v>4165</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="1" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -33427,13 +33421,13 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>3792</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="1">
         <v>2422</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="1" t="s">
         <v>969</v>
       </c>
     </row>
@@ -33460,24 +33454,24 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>4355</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="1">
         <v>3538</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="1" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>3779</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="1">
         <v>2398</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="1" t="s">
         <v>965</v>
       </c>
     </row>
@@ -33526,13 +33520,13 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>3865</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="1">
         <v>2574</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="1" t="s">
         <v>892</v>
       </c>
     </row>
@@ -33548,35 +33542,35 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>4061</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="1">
         <v>2925</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>4116</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="1">
         <v>3008</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>4109</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="1">
         <v>2996</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="1" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -33647,13 +33641,13 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>3596</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="1">
         <v>2097</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -33680,24 +33674,24 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>3824</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="1">
         <v>2490</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>3257</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="1">
         <v>1637</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
@@ -33746,13 +33740,13 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>3621</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="1">
         <v>2136</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="1" t="s">
         <v>977</v>
       </c>
     </row>
@@ -33834,13 +33828,13 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>3562</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="1">
         <v>2054</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="1" t="s">
         <v>938</v>
       </c>
     </row>
@@ -33955,13 +33949,13 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>4134</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="1">
         <v>3047</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -34054,13 +34048,13 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>4326</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="1">
         <v>3407</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="1" t="s">
         <v>813</v>
       </c>
     </row>
@@ -34131,24 +34125,24 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>4587</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="1">
         <v>4275</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>3426</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="1">
         <v>1875</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -34208,13 +34202,13 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504">
+      <c r="A504" s="1">
         <v>3648</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="1">
         <v>2171</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" s="1" t="s">
         <v>985</v>
       </c>
     </row>
@@ -34318,13 +34312,13 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514">
+      <c r="A514" s="1">
         <v>3797</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="1">
         <v>2434</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -34395,24 +34389,24 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521">
+      <c r="A521" s="1">
         <v>4029</v>
       </c>
-      <c r="B521">
+      <c r="B521" s="1">
         <v>2871</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C521" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522">
+      <c r="A522" s="1">
         <v>4131</v>
       </c>
-      <c r="B522">
+      <c r="B522" s="1">
         <v>3030</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C522" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -34483,13 +34477,13 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529">
+      <c r="A529" s="1">
         <v>3488</v>
       </c>
-      <c r="B529">
+      <c r="B529" s="1">
         <v>1962</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C529" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -34505,13 +34499,13 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531">
+      <c r="A531" s="1">
         <v>3747</v>
       </c>
-      <c r="B531">
+      <c r="B531" s="1">
         <v>2333</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C531" s="1" t="s">
         <v>951</v>
       </c>
     </row>
@@ -34527,13 +34521,13 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533">
+      <c r="A533" s="1">
         <v>3821</v>
       </c>
-      <c r="B533">
+      <c r="B533" s="1">
         <v>2482</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C533" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -34615,13 +34609,13 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541">
+      <c r="A541" s="1">
         <v>4197</v>
       </c>
-      <c r="B541">
+      <c r="B541" s="1">
         <v>3158</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C541" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -34648,24 +34642,24 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544">
+      <c r="A544" s="1">
         <v>3793</v>
       </c>
-      <c r="B544">
+      <c r="B544" s="1">
         <v>2424</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C544" s="1" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545">
+      <c r="A545" s="1">
         <v>4380</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="1">
         <v>3652</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C545" s="1" t="s">
         <v>859</v>
       </c>
     </row>
@@ -34725,13 +34719,13 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551">
+      <c r="A551" s="1">
         <v>3613</v>
       </c>
-      <c r="B551">
+      <c r="B551" s="1">
         <v>2124</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C551" s="1" t="s">
         <v>972</v>
       </c>
     </row>
@@ -34769,13 +34763,13 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555">
+      <c r="A555" s="1">
         <v>3576</v>
       </c>
-      <c r="B555">
+      <c r="B555" s="1">
         <v>2071</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C555" s="1" t="s">
         <v>945</v>
       </c>
     </row>
@@ -34813,13 +34807,13 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559">
+      <c r="A559" s="1">
         <v>4070</v>
       </c>
-      <c r="B559">
+      <c r="B559" s="1">
         <v>2940</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C559" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -34879,13 +34873,13 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565">
+      <c r="A565" s="1">
         <v>4324</v>
       </c>
-      <c r="B565">
+      <c r="B565" s="1">
         <v>3405</v>
       </c>
-      <c r="C565" t="s">
+      <c r="C565" s="1" t="s">
         <v>811</v>
       </c>
     </row>
@@ -34901,13 +34895,13 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567">
+      <c r="A567" s="1">
         <v>4113</v>
       </c>
-      <c r="B567">
+      <c r="B567" s="1">
         <v>3002</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C567" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -35000,13 +34994,13 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576">
+      <c r="A576" s="1">
         <v>3540</v>
       </c>
-      <c r="B576">
+      <c r="B576" s="1">
         <v>2028</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C576" s="1" t="s">
         <v>928</v>
       </c>
     </row>
@@ -35088,13 +35082,13 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584">
+      <c r="A584" s="1">
         <v>4500</v>
       </c>
-      <c r="B584">
+      <c r="B584" s="1">
         <v>3919</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C584" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -35187,13 +35181,13 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593">
+      <c r="A593" s="1">
         <v>3394</v>
       </c>
-      <c r="B593">
+      <c r="B593" s="1">
         <v>1826</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C593" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -35231,13 +35225,13 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A597">
+      <c r="A597" s="1">
         <v>3531</v>
       </c>
-      <c r="B597">
+      <c r="B597" s="1">
         <v>2016</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C597" s="1" t="s">
         <v>924</v>
       </c>
     </row>
@@ -35330,13 +35324,13 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606">
+      <c r="A606" s="1">
         <v>4195</v>
       </c>
-      <c r="B606">
+      <c r="B606" s="1">
         <v>3156</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C606" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -35374,13 +35368,13 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610">
+      <c r="A610" s="1">
         <v>4539</v>
       </c>
-      <c r="B610">
+      <c r="B610" s="1">
         <v>4100</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C610" s="1" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -35495,13 +35489,13 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A621">
+      <c r="A621" s="1">
         <v>3580</v>
       </c>
-      <c r="B621">
+      <c r="B621" s="1">
         <v>2077</v>
       </c>
-      <c r="C621" t="s">
+      <c r="C621" s="1" t="s">
         <v>948</v>
       </c>
     </row>
@@ -35517,24 +35511,24 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A623">
+      <c r="A623" s="1">
         <v>4142</v>
       </c>
-      <c r="B623">
+      <c r="B623" s="1">
         <v>3064</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C623" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A624">
+      <c r="A624" s="1">
         <v>4136</v>
       </c>
-      <c r="B624">
+      <c r="B624" s="1">
         <v>3051</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C624" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -35550,13 +35544,13 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A626">
+      <c r="A626" s="1">
         <v>4137</v>
       </c>
-      <c r="B626">
+      <c r="B626" s="1">
         <v>3054</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C626" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35583,13 +35577,13 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A629">
+      <c r="A629" s="1">
         <v>3502</v>
       </c>
-      <c r="B629">
+      <c r="B629" s="1">
         <v>1980</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C629" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -35616,13 +35610,13 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A632">
+      <c r="A632" s="1">
         <v>4157</v>
       </c>
-      <c r="B632">
+      <c r="B632" s="1">
         <v>3094</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C632" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -35682,13 +35676,13 @@
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638">
+      <c r="A638" s="1">
         <v>3751</v>
       </c>
-      <c r="B638">
+      <c r="B638" s="1">
         <v>2341</v>
       </c>
-      <c r="C638" t="s">
+      <c r="C638" s="1" t="s">
         <v>954</v>
       </c>
     </row>
@@ -35803,13 +35797,13 @@
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649">
+      <c r="A649" s="1">
         <v>3194</v>
       </c>
-      <c r="B649">
+      <c r="B649" s="1">
         <v>1552</v>
       </c>
-      <c r="C649" t="s">
+      <c r="C649" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
@@ -35924,13 +35918,13 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660">
+      <c r="A660" s="1">
         <v>3505</v>
       </c>
-      <c r="B660">
+      <c r="B660" s="1">
         <v>1985</v>
       </c>
-      <c r="C660" t="s">
+      <c r="C660" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -35946,35 +35940,35 @@
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A662">
+      <c r="A662" s="1">
         <v>4130</v>
       </c>
-      <c r="B662">
+      <c r="B662" s="1">
         <v>3029</v>
       </c>
-      <c r="C662" t="s">
+      <c r="C662" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A663">
+      <c r="A663" s="1">
         <v>4208</v>
       </c>
-      <c r="B663">
+      <c r="B663" s="1">
         <v>3176</v>
       </c>
-      <c r="C663" t="s">
+      <c r="C663" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A664">
+      <c r="A664" s="1">
         <v>4209</v>
       </c>
-      <c r="B664">
+      <c r="B664" s="1">
         <v>3177</v>
       </c>
-      <c r="C664" t="s">
+      <c r="C664" s="1" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -36001,13 +35995,13 @@
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A667">
+      <c r="A667" s="1">
         <v>4211</v>
       </c>
-      <c r="B667">
+      <c r="B667" s="1">
         <v>3179</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="1" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -36023,13 +36017,13 @@
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A669">
+      <c r="A669" s="1">
         <v>3521</v>
       </c>
-      <c r="B669">
+      <c r="B669" s="1">
         <v>2003</v>
       </c>
-      <c r="C669" t="s">
+      <c r="C669" s="1" t="s">
         <v>918</v>
       </c>
     </row>
@@ -36078,57 +36072,57 @@
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674">
+      <c r="A674" s="1">
         <v>3822</v>
       </c>
-      <c r="B674">
+      <c r="B674" s="1">
         <v>2484</v>
       </c>
-      <c r="C674" t="s">
+      <c r="C674" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A675">
+      <c r="A675" s="1">
         <v>4217</v>
       </c>
-      <c r="B675">
+      <c r="B675" s="1">
         <v>3185</v>
       </c>
-      <c r="C675" t="s">
+      <c r="C675" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A676">
+      <c r="A676" s="1">
         <v>3814</v>
       </c>
-      <c r="B676">
+      <c r="B676" s="1">
         <v>2468</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C676" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A677">
+      <c r="A677" s="1">
         <v>3697</v>
       </c>
-      <c r="B677">
+      <c r="B677" s="1">
         <v>2241</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C677" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A678">
+      <c r="A678" s="1">
         <v>3698</v>
       </c>
-      <c r="B678">
+      <c r="B678" s="1">
         <v>2242</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C678" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -36144,35 +36138,35 @@
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A680">
+      <c r="A680" s="1">
         <v>4006</v>
       </c>
-      <c r="B680">
+      <c r="B680" s="1">
         <v>2833</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C680" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A681">
+      <c r="A681" s="1">
         <v>4169</v>
       </c>
-      <c r="B681">
+      <c r="B681" s="1">
         <v>3118</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C681" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A682">
+      <c r="A682" s="1">
         <v>4218</v>
       </c>
-      <c r="B682">
+      <c r="B682" s="1">
         <v>3186</v>
       </c>
-      <c r="C682" t="s">
+      <c r="C682" s="1" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -36199,13 +36193,13 @@
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A685">
+      <c r="A685" s="1">
         <v>4153</v>
       </c>
-      <c r="B685">
+      <c r="B685" s="1">
         <v>3086</v>
       </c>
-      <c r="C685" t="s">
+      <c r="C685" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -36221,35 +36215,35 @@
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A687">
+      <c r="A687" s="1">
         <v>3616</v>
       </c>
-      <c r="B687">
+      <c r="B687" s="1">
         <v>2129</v>
       </c>
-      <c r="C687" t="s">
+      <c r="C687" s="1" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A688">
+      <c r="A688" s="1">
         <v>3649</v>
       </c>
-      <c r="B688">
+      <c r="B688" s="1">
         <v>2172</v>
       </c>
-      <c r="C688" t="s">
+      <c r="C688" s="1" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A689">
+      <c r="A689" s="1">
         <v>4068</v>
       </c>
-      <c r="B689">
+      <c r="B689" s="1">
         <v>2936</v>
       </c>
-      <c r="C689" t="s">
+      <c r="C689" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -36276,24 +36270,24 @@
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A692" s="2">
+      <c r="A692" s="1">
         <v>3682</v>
       </c>
-      <c r="B692">
+      <c r="B692" s="1">
         <v>2216</v>
       </c>
-      <c r="C692" t="s">
+      <c r="C692" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A693">
+      <c r="A693" s="1">
         <v>3304</v>
       </c>
-      <c r="B693">
+      <c r="B693" s="1">
         <v>1701</v>
       </c>
-      <c r="C693" t="s">
+      <c r="C693" s="1" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -36353,13 +36347,13 @@
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A699">
+      <c r="A699" s="1">
         <v>3386</v>
       </c>
-      <c r="B699">
+      <c r="B699" s="1">
         <v>1811</v>
       </c>
-      <c r="C699" t="s">
+      <c r="C699" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -36485,13 +36479,13 @@
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A711">
+      <c r="A711" s="1">
         <v>3840</v>
       </c>
-      <c r="B711">
+      <c r="B711" s="1">
         <v>2520</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C711" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -36540,13 +36534,13 @@
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A716">
+      <c r="A716" s="1">
         <v>4582</v>
       </c>
-      <c r="B716">
+      <c r="B716" s="1">
         <v>4259</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C716" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -36562,13 +36556,13 @@
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A718">
+      <c r="A718" s="1">
         <v>3986</v>
       </c>
-      <c r="B718">
+      <c r="B718" s="1">
         <v>2797</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C718" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -36576,21 +36570,21 @@
       <c r="A719" s="1">
         <v>3514</v>
       </c>
-      <c r="B719">
+      <c r="B719" s="1">
         <v>1995</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C719" s="1" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A720">
+      <c r="A720" s="1">
         <v>4367</v>
       </c>
-      <c r="B720">
+      <c r="B720" s="1">
         <v>3605</v>
       </c>
-      <c r="C720" t="s">
+      <c r="C720" s="1" t="s">
         <v>847</v>
       </c>
     </row>
@@ -36606,24 +36600,24 @@
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A722">
+      <c r="A722" s="1">
         <v>4592</v>
       </c>
-      <c r="B722">
+      <c r="B722" s="1">
         <v>4292</v>
       </c>
-      <c r="C722" t="s">
+      <c r="C722" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A723">
+      <c r="A723" s="1">
         <v>3417</v>
       </c>
-      <c r="B723">
+      <c r="B723" s="1">
         <v>1862</v>
       </c>
-      <c r="C723" t="s">
+      <c r="C723" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -36661,13 +36655,13 @@
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A727">
+      <c r="A727" s="1">
         <v>3404</v>
       </c>
-      <c r="B727">
+      <c r="B727" s="1">
         <v>1839</v>
       </c>
-      <c r="C727" t="s">
+      <c r="C727" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -36727,13 +36721,13 @@
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A733">
+      <c r="A733" s="1">
         <v>4496</v>
       </c>
-      <c r="B733">
+      <c r="B733" s="1">
         <v>3908</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C733" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -36815,13 +36809,13 @@
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A741">
+      <c r="A741" s="1">
         <v>3760</v>
       </c>
-      <c r="B741">
+      <c r="B741" s="1">
         <v>2358</v>
       </c>
-      <c r="C741" t="s">
+      <c r="C741" s="1" t="s">
         <v>956</v>
       </c>
     </row>
@@ -36936,13 +36930,13 @@
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A752">
+      <c r="A752" s="1">
         <v>4124</v>
       </c>
-      <c r="B752">
+      <c r="B752" s="1">
         <v>3017</v>
       </c>
-      <c r="C752" t="s">
+      <c r="C752" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -36958,13 +36952,13 @@
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A754">
+      <c r="A754" s="1">
         <v>4129</v>
       </c>
-      <c r="B754">
+      <c r="B754" s="1">
         <v>3027</v>
       </c>
-      <c r="C754" t="s">
+      <c r="C754" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -37035,13 +37029,13 @@
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A761">
+      <c r="A761" s="1">
         <v>4147</v>
       </c>
-      <c r="B761">
+      <c r="B761" s="1">
         <v>3074</v>
       </c>
-      <c r="C761" t="s">
+      <c r="C761" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -37068,13 +37062,13 @@
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A764">
+      <c r="A764" s="1">
         <v>4117</v>
       </c>
-      <c r="B764">
+      <c r="B764" s="1">
         <v>3009</v>
       </c>
-      <c r="C764" t="s">
+      <c r="C764" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -37145,13 +37139,13 @@
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A771">
+      <c r="A771" s="1">
         <v>4632</v>
       </c>
-      <c r="B771">
+      <c r="B771" s="1">
         <v>4882</v>
       </c>
-      <c r="C771" t="s">
+      <c r="C771" s="1" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -37178,13 +37172,13 @@
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A774">
+      <c r="A774" s="1">
         <v>4182</v>
       </c>
-      <c r="B774">
+      <c r="B774" s="1">
         <v>3135</v>
       </c>
-      <c r="C774" t="s">
+      <c r="C774" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -37222,24 +37216,24 @@
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A778">
+      <c r="A778" s="1">
         <v>5027</v>
       </c>
-      <c r="B778">
+      <c r="B778" s="1">
         <v>5098</v>
       </c>
-      <c r="C778" t="s">
+      <c r="C778" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A779">
+      <c r="A779" s="1">
         <v>4585</v>
       </c>
-      <c r="B779">
+      <c r="B779" s="1">
         <v>4270</v>
       </c>
-      <c r="C779" t="s">
+      <c r="C779" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -37387,13 +37381,13 @@
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A793">
+      <c r="A793" s="1">
         <v>3561</v>
       </c>
-      <c r="B793">
+      <c r="B793" s="1">
         <v>2053</v>
       </c>
-      <c r="C793" t="s">
+      <c r="C793" s="1" t="s">
         <v>937</v>
       </c>
     </row>
@@ -37442,13 +37436,13 @@
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A798">
+      <c r="A798" s="1">
         <v>3565</v>
       </c>
-      <c r="B798">
+      <c r="B798" s="1">
         <v>2057</v>
       </c>
-      <c r="C798" t="s">
+      <c r="C798" s="1" t="s">
         <v>940</v>
       </c>
     </row>
@@ -37827,13 +37821,13 @@
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A833">
+      <c r="A833" s="1">
         <v>3825</v>
       </c>
-      <c r="B833">
+      <c r="B833" s="1">
         <v>2491</v>
       </c>
-      <c r="C833" t="s">
+      <c r="C833" s="1" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -37849,13 +37843,13 @@
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A835">
+      <c r="A835" s="1">
         <v>4555</v>
       </c>
-      <c r="B835">
+      <c r="B835" s="1">
         <v>4160</v>
       </c>
-      <c r="C835" t="s">
+      <c r="C835" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -37904,13 +37898,13 @@
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A840">
+      <c r="A840" s="1">
         <v>4552</v>
       </c>
-      <c r="B840">
+      <c r="B840" s="1">
         <v>4153</v>
       </c>
-      <c r="C840" t="s">
+      <c r="C840" s="1" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -38124,13 +38118,13 @@
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A860">
+      <c r="A860" s="1">
         <v>3635</v>
       </c>
-      <c r="B860">
+      <c r="B860" s="1">
         <v>2155</v>
       </c>
-      <c r="C860" t="s">
+      <c r="C860" s="1" t="s">
         <v>980</v>
       </c>
     </row>
@@ -38278,13 +38272,13 @@
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A874">
+      <c r="A874" s="1">
         <v>4111</v>
       </c>
-      <c r="B874">
+      <c r="B874" s="1">
         <v>2999</v>
       </c>
-      <c r="C874" t="s">
+      <c r="C874" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -38333,13 +38327,13 @@
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A879">
+      <c r="A879" s="1">
         <v>4575</v>
       </c>
-      <c r="B879">
+      <c r="B879" s="1">
         <v>4235</v>
       </c>
-      <c r="C879" t="s">
+      <c r="C879" s="1" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -38355,24 +38349,24 @@
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A881">
+      <c r="A881" s="1">
         <v>4104</v>
       </c>
-      <c r="B881">
+      <c r="B881" s="1">
         <v>2982</v>
       </c>
-      <c r="C881" t="s">
+      <c r="C881" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A882">
+      <c r="A882" s="1">
         <v>3833</v>
       </c>
-      <c r="B882">
+      <c r="B882" s="1">
         <v>2503</v>
       </c>
-      <c r="C882" t="s">
+      <c r="C882" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -38388,13 +38382,13 @@
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A884">
+      <c r="A884" s="1">
         <v>4634</v>
       </c>
-      <c r="B884">
+      <c r="B884" s="1">
         <v>4884</v>
       </c>
-      <c r="C884" t="s">
+      <c r="C884" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
@@ -38476,24 +38470,24 @@
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A892">
+      <c r="A892" s="1">
         <v>3909</v>
       </c>
-      <c r="B892">
+      <c r="B892" s="1">
         <v>2653</v>
       </c>
-      <c r="C892" t="s">
+      <c r="C892" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A893">
+      <c r="A893" s="1">
         <v>3330</v>
       </c>
-      <c r="B893">
+      <c r="B893" s="1">
         <v>1735</v>
       </c>
-      <c r="C893" t="s">
+      <c r="C893" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -38542,13 +38536,13 @@
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A898">
+      <c r="A898" s="1">
         <v>3204</v>
       </c>
-      <c r="B898">
+      <c r="B898" s="1">
         <v>1565</v>
       </c>
-      <c r="C898" t="s">
+      <c r="C898" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -38586,13 +38580,13 @@
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A902">
+      <c r="A902" s="1">
         <v>3740</v>
       </c>
-      <c r="B902">
+      <c r="B902" s="1">
         <v>2319</v>
       </c>
-      <c r="C902" t="s">
+      <c r="C902" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -38630,13 +38624,13 @@
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A906">
+      <c r="A906" s="1">
         <v>4191</v>
       </c>
-      <c r="B906">
+      <c r="B906" s="1">
         <v>3148</v>
       </c>
-      <c r="C906" t="s">
+      <c r="C906" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -38685,13 +38679,13 @@
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A911">
+      <c r="A911" s="1">
         <v>4048</v>
       </c>
-      <c r="B911">
+      <c r="B911" s="1">
         <v>2903</v>
       </c>
-      <c r="C911" t="s">
+      <c r="C911" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -38707,13 +38701,13 @@
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A913">
+      <c r="A913" s="1">
         <v>3196</v>
       </c>
-      <c r="B913">
+      <c r="B913" s="1">
         <v>1556</v>
       </c>
-      <c r="C913" t="s">
+      <c r="C913" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -38740,13 +38734,13 @@
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A916">
+      <c r="A916" s="1">
         <v>4180</v>
       </c>
-      <c r="B916">
+      <c r="B916" s="1">
         <v>3133</v>
       </c>
-      <c r="C916" t="s">
+      <c r="C916" s="1" t="s">
         <v>762</v>
       </c>
     </row>
@@ -38817,24 +38811,24 @@
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A923">
+      <c r="A923" s="1">
         <v>5874</v>
       </c>
-      <c r="B923">
+      <c r="B923" s="1">
         <v>6910</v>
       </c>
-      <c r="C923" t="s">
+      <c r="C923" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A924">
+      <c r="A924" s="1">
         <v>3369</v>
       </c>
-      <c r="B924">
+      <c r="B924" s="1">
         <v>1786</v>
       </c>
-      <c r="C924" t="s">
+      <c r="C924" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -38872,13 +38866,13 @@
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A928">
+      <c r="A928" s="1">
         <v>5842</v>
       </c>
-      <c r="B928">
+      <c r="B928" s="1">
         <v>6881</v>
       </c>
-      <c r="C928" t="s">
+      <c r="C928" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -38938,13 +38932,13 @@
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A934">
+      <c r="A934" s="1">
         <v>3743</v>
       </c>
-      <c r="B934">
+      <c r="B934" s="1">
         <v>2325</v>
       </c>
-      <c r="C934" t="s">
+      <c r="C934" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -38971,24 +38965,24 @@
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A937">
+      <c r="A937" s="1">
         <v>3501</v>
       </c>
-      <c r="B937">
+      <c r="B937" s="1">
         <v>1977</v>
       </c>
-      <c r="C937" t="s">
+      <c r="C937" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A938">
+      <c r="A938" s="1">
         <v>5847</v>
       </c>
-      <c r="B938">
+      <c r="B938" s="1">
         <v>6889</v>
       </c>
-      <c r="C938" t="s">
+      <c r="C938" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -39015,13 +39009,13 @@
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A941">
+      <c r="A941" s="1">
         <v>4058</v>
       </c>
-      <c r="B941">
+      <c r="B941" s="1">
         <v>2921</v>
       </c>
-      <c r="C941" t="s">
+      <c r="C941" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -39048,24 +39042,24 @@
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A944">
+      <c r="A944" s="1">
         <v>4059</v>
       </c>
-      <c r="B944">
+      <c r="B944" s="1">
         <v>2922</v>
       </c>
-      <c r="C944" t="s">
+      <c r="C944" s="1" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A945">
+      <c r="A945" s="1">
         <v>3996</v>
       </c>
-      <c r="B945">
+      <c r="B945" s="1">
         <v>2817</v>
       </c>
-      <c r="C945" t="s">
+      <c r="C945" s="1" t="s">
         <v>680</v>
       </c>
     </row>
@@ -39092,13 +39086,13 @@
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A948">
+      <c r="A948" s="1">
         <v>4156</v>
       </c>
-      <c r="B948">
+      <c r="B948" s="1">
         <v>3092</v>
       </c>
-      <c r="C948" t="s">
+      <c r="C948" s="1" t="s">
         <v>743</v>
       </c>
     </row>
@@ -39158,13 +39152,13 @@
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A954">
+      <c r="A954" s="1">
         <v>4159</v>
       </c>
-      <c r="B954">
+      <c r="B954" s="1">
         <v>3098</v>
       </c>
-      <c r="C954" t="s">
+      <c r="C954" s="1" t="s">
         <v>745</v>
       </c>
     </row>
@@ -39235,13 +39229,13 @@
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A961">
+      <c r="A961" s="1">
         <v>5029</v>
       </c>
-      <c r="B961">
+      <c r="B961" s="1">
         <v>5100</v>
       </c>
-      <c r="C961" t="s">
+      <c r="C961" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -39257,13 +39251,13 @@
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A963">
+      <c r="A963" s="1">
         <v>3322</v>
       </c>
-      <c r="B963">
+      <c r="B963" s="1">
         <v>1726</v>
       </c>
-      <c r="C963" t="s">
+      <c r="C963" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -39356,13 +39350,13 @@
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A972">
+      <c r="A972" s="1">
         <v>3323</v>
       </c>
-      <c r="B972">
+      <c r="B972" s="1">
         <v>1727</v>
       </c>
-      <c r="C972" t="s">
+      <c r="C972" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -39378,13 +39372,13 @@
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A974">
+      <c r="A974" s="1">
         <v>3153</v>
       </c>
-      <c r="B974">
+      <c r="B974" s="1">
         <v>1497</v>
       </c>
-      <c r="C974" t="s">
+      <c r="C974" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -39411,24 +39405,24 @@
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A977">
+      <c r="A977" s="1">
         <v>3612</v>
       </c>
-      <c r="B977">
+      <c r="B977" s="1">
         <v>2123</v>
       </c>
-      <c r="C977" t="s">
+      <c r="C977" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A978">
+      <c r="A978" s="1">
         <v>3816</v>
       </c>
-      <c r="B978">
+      <c r="B978" s="1">
         <v>2471</v>
       </c>
-      <c r="C978" t="s">
+      <c r="C978" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -39466,35 +39460,35 @@
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A982">
+      <c r="A982" s="1">
         <v>4001</v>
       </c>
-      <c r="B982">
+      <c r="B982" s="1">
         <v>2825</v>
       </c>
-      <c r="C982" t="s">
+      <c r="C982" s="1" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A983">
+      <c r="A983" s="1">
         <v>4189</v>
       </c>
-      <c r="B983">
+      <c r="B983" s="1">
         <v>3146</v>
       </c>
-      <c r="C983" t="s">
+      <c r="C983" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A984">
+      <c r="A984" s="1">
         <v>4052</v>
       </c>
-      <c r="B984">
+      <c r="B984" s="1">
         <v>2912</v>
       </c>
-      <c r="C984" t="s">
+      <c r="C984" s="1" t="s">
         <v>712</v>
       </c>
     </row>
@@ -39510,13 +39504,13 @@
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A986">
+      <c r="A986" s="1">
         <v>4290</v>
       </c>
-      <c r="B986">
+      <c r="B986" s="1">
         <v>3342</v>
       </c>
-      <c r="C986" t="s">
+      <c r="C986" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -39686,13 +39680,13 @@
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1002">
+      <c r="A1002" s="1">
         <v>3718</v>
       </c>
-      <c r="B1002">
+      <c r="B1002" s="1">
         <v>2274</v>
       </c>
-      <c r="C1002" t="s">
+      <c r="C1002" s="1" t="s">
         <v>518</v>
       </c>
     </row>
@@ -39730,24 +39724,24 @@
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1006">
+      <c r="A1006" s="1">
         <v>3785</v>
       </c>
-      <c r="B1006">
+      <c r="B1006" s="1">
         <v>2410</v>
       </c>
-      <c r="C1006" t="s">
+      <c r="C1006" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1007">
+      <c r="A1007" s="1">
         <v>3788</v>
       </c>
-      <c r="B1007">
+      <c r="B1007" s="1">
         <v>2416</v>
       </c>
-      <c r="C1007" t="s">
+      <c r="C1007" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -39763,35 +39757,35 @@
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1009">
+      <c r="A1009" s="1">
         <v>5742</v>
       </c>
-      <c r="B1009">
+      <c r="B1009" s="1">
         <v>6812</v>
       </c>
-      <c r="C1009" t="s">
+      <c r="C1009" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1010">
+      <c r="A1010" s="1">
         <v>4341</v>
       </c>
-      <c r="B1010">
+      <c r="B1010" s="1">
         <v>3449</v>
       </c>
-      <c r="C1010" t="s">
+      <c r="C1010" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1011">
+      <c r="A1011" s="1">
         <v>3901</v>
       </c>
-      <c r="B1011">
+      <c r="B1011" s="1">
         <v>2636</v>
       </c>
-      <c r="C1011" t="s">
+      <c r="C1011" s="1" t="s">
         <v>620</v>
       </c>
     </row>
@@ -39851,57 +39845,57 @@
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1017">
+      <c r="A1017" s="1">
         <v>3610</v>
       </c>
-      <c r="B1017">
+      <c r="B1017" s="1">
         <v>2120</v>
       </c>
-      <c r="C1017" t="s">
+      <c r="C1017" s="1" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1018">
+      <c r="A1018" s="1">
         <v>4630</v>
       </c>
-      <c r="B1018">
+      <c r="B1018" s="1">
         <v>4874</v>
       </c>
-      <c r="C1018" t="s">
+      <c r="C1018" s="1" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1019">
+      <c r="A1019" s="1">
         <v>3265</v>
       </c>
-      <c r="B1019">
+      <c r="B1019" s="1">
         <v>1646</v>
       </c>
-      <c r="C1019" t="s">
+      <c r="C1019" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1020">
+      <c r="A1020" s="1">
         <v>3139</v>
       </c>
-      <c r="B1020">
+      <c r="B1020" s="1">
         <v>1479</v>
       </c>
-      <c r="C1020" t="s">
+      <c r="C1020" s="1" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1021">
+      <c r="A1021" s="1">
         <v>3708</v>
       </c>
-      <c r="B1021">
+      <c r="B1021" s="1">
         <v>2253</v>
       </c>
-      <c r="C1021" t="s">
+      <c r="C1021" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -39939,13 +39933,13 @@
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1025">
+      <c r="A1025" s="1">
         <v>4158</v>
       </c>
-      <c r="B1025">
+      <c r="B1025" s="1">
         <v>3096</v>
       </c>
-      <c r="C1025" t="s">
+      <c r="C1025" s="1" t="s">
         <v>744</v>
       </c>
     </row>
@@ -39972,13 +39966,13 @@
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1028">
+      <c r="A1028" s="1">
         <v>3899</v>
       </c>
-      <c r="B1028">
+      <c r="B1028" s="1">
         <v>2632</v>
       </c>
-      <c r="C1028" t="s">
+      <c r="C1028" s="1" t="s">
         <v>618</v>
       </c>
     </row>
@@ -40038,24 +40032,24 @@
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1034">
+      <c r="A1034" s="1">
         <v>5031</v>
       </c>
-      <c r="B1034">
+      <c r="B1034" s="1">
         <v>5102</v>
       </c>
-      <c r="C1034" t="s">
+      <c r="C1034" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1035">
+      <c r="A1035" s="1">
         <v>4150</v>
       </c>
-      <c r="B1035">
+      <c r="B1035" s="1">
         <v>3080</v>
       </c>
-      <c r="C1035" t="s">
+      <c r="C1035" s="1" t="s">
         <v>739</v>
       </c>
     </row>
@@ -40082,13 +40076,13 @@
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1038">
+      <c r="A1038" s="1">
         <v>3711</v>
       </c>
-      <c r="B1038">
+      <c r="B1038" s="1">
         <v>2256</v>
       </c>
-      <c r="C1038" t="s">
+      <c r="C1038" s="1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -40104,13 +40098,13 @@
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1040">
+      <c r="A1040" s="1">
         <v>3532</v>
       </c>
-      <c r="B1040">
+      <c r="B1040" s="1">
         <v>2017</v>
       </c>
-      <c r="C1040" t="s">
+      <c r="C1040" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -40126,13 +40120,13 @@
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1042">
+      <c r="A1042" s="1">
         <v>3874</v>
       </c>
-      <c r="B1042">
+      <c r="B1042" s="1">
         <v>2587</v>
       </c>
-      <c r="C1042" t="s">
+      <c r="C1042" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -40148,13 +40142,13 @@
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1044">
+      <c r="A1044" s="1">
         <v>3341</v>
       </c>
-      <c r="B1044">
+      <c r="B1044" s="1">
         <v>1750</v>
       </c>
-      <c r="C1044" t="s">
+      <c r="C1044" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -40170,13 +40164,13 @@
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1046">
+      <c r="A1046" s="1">
         <v>4240</v>
       </c>
-      <c r="B1046">
+      <c r="B1046" s="1">
         <v>3212</v>
       </c>
-      <c r="C1046" t="s">
+      <c r="C1046" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -40247,13 +40241,13 @@
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1053">
+      <c r="A1053" s="1">
         <v>4560</v>
       </c>
-      <c r="B1053">
+      <c r="B1053" s="1">
         <v>4179</v>
       </c>
-      <c r="C1053" t="s">
+      <c r="C1053" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -40291,13 +40285,13 @@
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1057">
+      <c r="A1057" s="1">
         <v>3256</v>
       </c>
-      <c r="B1057">
+      <c r="B1057" s="1">
         <v>1635</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="C1057" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -40335,46 +40329,46 @@
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1061">
+      <c r="A1061" s="1">
         <v>3587</v>
       </c>
-      <c r="B1061">
+      <c r="B1061" s="1">
         <v>2084</v>
       </c>
-      <c r="C1061" t="s">
+      <c r="C1061" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1062">
+      <c r="A1062" s="1">
         <v>4106</v>
       </c>
-      <c r="B1062">
+      <c r="B1062" s="1">
         <v>2986</v>
       </c>
-      <c r="C1062" t="s">
+      <c r="C1062" s="1" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1063">
+      <c r="A1063" s="1">
         <v>4042</v>
       </c>
-      <c r="B1063">
+      <c r="B1063" s="1">
         <v>2892</v>
       </c>
-      <c r="C1063" t="s">
+      <c r="C1063" s="1" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1064">
+      <c r="A1064" s="1">
         <v>3842</v>
       </c>
-      <c r="B1064">
+      <c r="B1064" s="1">
         <v>2536</v>
       </c>
-      <c r="C1064" t="s">
+      <c r="C1064" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -40390,13 +40384,13 @@
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1066">
+      <c r="A1066" s="1">
         <v>3971</v>
       </c>
-      <c r="B1066">
+      <c r="B1066" s="1">
         <v>2769</v>
       </c>
-      <c r="C1066" t="s">
+      <c r="C1066" s="1" t="s">
         <v>662</v>
       </c>
     </row>
@@ -40423,35 +40417,35 @@
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1069">
+      <c r="A1069" s="1">
         <v>3812</v>
       </c>
-      <c r="B1069">
+      <c r="B1069" s="1">
         <v>2465</v>
       </c>
-      <c r="C1069" t="s">
+      <c r="C1069" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1070">
+      <c r="A1070" s="1">
         <v>3268</v>
       </c>
-      <c r="B1070">
+      <c r="B1070" s="1">
         <v>1651</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="C1070" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1071">
+      <c r="A1071" s="1">
         <v>4057</v>
       </c>
-      <c r="B1071">
+      <c r="B1071" s="1">
         <v>2920</v>
       </c>
-      <c r="C1071" t="s">
+      <c r="C1071" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -40467,13 +40461,13 @@
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1073">
+      <c r="A1073" s="1">
         <v>4248</v>
       </c>
-      <c r="B1073">
+      <c r="B1073" s="1">
         <v>3224</v>
       </c>
-      <c r="C1073" t="s">
+      <c r="C1073" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -40555,13 +40549,13 @@
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1081">
+      <c r="A1081" s="1">
         <v>5849</v>
       </c>
-      <c r="B1081">
+      <c r="B1081" s="1">
         <v>6891</v>
       </c>
-      <c r="C1081" t="s">
+      <c r="C1081" s="1" t="s">
         <v>570</v>
       </c>
     </row>
@@ -40577,24 +40571,24 @@
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1083">
+      <c r="A1083" s="1">
         <v>3336</v>
       </c>
-      <c r="B1083">
+      <c r="B1083" s="1">
         <v>1745</v>
       </c>
-      <c r="C1083" t="s">
+      <c r="C1083" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1084">
+      <c r="A1084" s="1">
         <v>5812</v>
       </c>
-      <c r="B1084">
+      <c r="B1084" s="1">
         <v>6858</v>
       </c>
-      <c r="C1084" t="s">
+      <c r="C1084" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -40621,13 +40615,13 @@
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1087">
+      <c r="A1087" s="1">
         <v>3746</v>
       </c>
-      <c r="B1087">
+      <c r="B1087" s="1">
         <v>2331</v>
       </c>
-      <c r="C1087" t="s">
+      <c r="C1087" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -40665,13 +40659,13 @@
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1091">
+      <c r="A1091" s="1">
         <v>4178</v>
       </c>
-      <c r="B1091">
+      <c r="B1091" s="1">
         <v>3131</v>
       </c>
-      <c r="C1091" t="s">
+      <c r="C1091" s="1" t="s">
         <v>760</v>
       </c>
     </row>
@@ -40808,13 +40802,13 @@
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1104">
+      <c r="A1104" s="1">
         <v>3403</v>
       </c>
-      <c r="B1104">
+      <c r="B1104" s="1">
         <v>1837</v>
       </c>
-      <c r="C1104" t="s">
+      <c r="C1104" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -40852,24 +40846,24 @@
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1108">
+      <c r="A1108" s="1">
         <v>3166</v>
       </c>
-      <c r="B1108">
+      <c r="B1108" s="1">
         <v>1517</v>
       </c>
-      <c r="C1108" t="s">
+      <c r="C1108" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1109">
+      <c r="A1109" s="1">
         <v>3259</v>
       </c>
-      <c r="B1109">
+      <c r="B1109" s="1">
         <v>1639</v>
       </c>
-      <c r="C1109" t="s">
+      <c r="C1109" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -40885,13 +40879,13 @@
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1111">
+      <c r="A1111" s="1">
         <v>5820</v>
       </c>
-      <c r="B1111">
+      <c r="B1111" s="1">
         <v>6865</v>
       </c>
-      <c r="C1111" t="s">
+      <c r="C1111" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -40940,13 +40934,13 @@
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1116">
+      <c r="A1116" s="1">
         <v>5679</v>
       </c>
-      <c r="B1116">
+      <c r="B1116" s="1">
         <v>6757</v>
       </c>
-      <c r="C1116" t="s">
+      <c r="C1116" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -41039,13 +41033,13 @@
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1125">
+      <c r="A1125" s="1">
         <v>3725</v>
       </c>
-      <c r="B1125">
+      <c r="B1125" s="1">
         <v>2289</v>
       </c>
-      <c r="C1125" t="s">
+      <c r="C1125" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -41072,35 +41066,35 @@
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1128">
+      <c r="A1128" s="1">
         <v>3889</v>
       </c>
-      <c r="B1128">
+      <c r="B1128" s="1">
         <v>2611</v>
       </c>
-      <c r="C1128" t="s">
+      <c r="C1128" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1129">
+      <c r="A1129" s="1">
         <v>4009</v>
       </c>
-      <c r="B1129">
+      <c r="B1129" s="1">
         <v>2837</v>
       </c>
-      <c r="C1129" t="s">
+      <c r="C1129" s="1" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1130">
+      <c r="A1130" s="1">
         <v>5813</v>
       </c>
-      <c r="B1130">
+      <c r="B1130" s="1">
         <v>6859</v>
       </c>
-      <c r="C1130" t="s">
+      <c r="C1130" s="1" t="s">
         <v>579</v>
       </c>
     </row>
@@ -41116,13 +41110,13 @@
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1132">
+      <c r="A1132" s="1">
         <v>3955</v>
       </c>
-      <c r="B1132">
+      <c r="B1132" s="1">
         <v>2736</v>
       </c>
-      <c r="C1132" t="s">
+      <c r="C1132" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -41138,13 +41132,13 @@
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1134">
+      <c r="A1134" s="1">
         <v>5775</v>
       </c>
-      <c r="B1134">
+      <c r="B1134" s="1">
         <v>6828</v>
       </c>
-      <c r="C1134" t="s">
+      <c r="C1134" s="1" t="s">
         <v>585</v>
       </c>
     </row>
@@ -41204,13 +41198,13 @@
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1140">
+      <c r="A1140" s="1">
         <v>3841</v>
       </c>
-      <c r="B1140">
+      <c r="B1140" s="1">
         <v>2532</v>
       </c>
-      <c r="C1140" t="s">
+      <c r="C1140" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -41226,24 +41220,24 @@
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1142">
+      <c r="A1142" s="1">
         <v>3571</v>
       </c>
-      <c r="B1142">
+      <c r="B1142" s="1">
         <v>2064</v>
       </c>
-      <c r="C1142" t="s">
+      <c r="C1142" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1143">
+      <c r="A1143" s="1">
         <v>3272</v>
       </c>
-      <c r="B1143">
+      <c r="B1143" s="1">
         <v>1657</v>
       </c>
-      <c r="C1143" t="s">
+      <c r="C1143" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -41259,13 +41253,13 @@
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1145">
+      <c r="A1145" s="1">
         <v>5844</v>
       </c>
-      <c r="B1145">
+      <c r="B1145" s="1">
         <v>6884</v>
       </c>
-      <c r="C1145" t="s">
+      <c r="C1145" s="1" t="s">
         <v>580</v>
       </c>
     </row>
@@ -41292,13 +41286,13 @@
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1148">
+      <c r="A1148" s="1">
         <v>3508</v>
       </c>
-      <c r="B1148">
+      <c r="B1148" s="1">
         <v>1989</v>
       </c>
-      <c r="C1148" t="s">
+      <c r="C1148" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -41347,24 +41341,24 @@
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1153">
+      <c r="A1153" s="1">
         <v>4190</v>
       </c>
-      <c r="B1153">
+      <c r="B1153" s="1">
         <v>3147</v>
       </c>
-      <c r="C1153" t="s">
+      <c r="C1153" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1154">
+      <c r="A1154" s="1">
         <v>3860</v>
       </c>
-      <c r="B1154">
+      <c r="B1154" s="1">
         <v>2569</v>
       </c>
-      <c r="C1154" t="s">
+      <c r="C1154" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -41380,24 +41374,24 @@
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1156">
+      <c r="A1156" s="1">
         <v>3848</v>
       </c>
-      <c r="B1156">
+      <c r="B1156" s="1">
         <v>2549</v>
       </c>
-      <c r="C1156" t="s">
+      <c r="C1156" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1157">
+      <c r="A1157" s="1">
         <v>5726</v>
       </c>
-      <c r="B1157">
+      <c r="B1157" s="1">
         <v>6785</v>
       </c>
-      <c r="C1157" t="s">
+      <c r="C1157" s="1" t="s">
         <v>599</v>
       </c>
     </row>
@@ -41413,13 +41407,13 @@
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1159">
+      <c r="A1159" s="1">
         <v>3461</v>
       </c>
-      <c r="B1159">
+      <c r="B1159" s="1">
         <v>1923</v>
       </c>
-      <c r="C1159" t="s">
+      <c r="C1159" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -41457,13 +41451,13 @@
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1163">
+      <c r="A1163" s="1">
         <v>3729</v>
       </c>
-      <c r="B1163">
+      <c r="B1163" s="1">
         <v>2296</v>
       </c>
-      <c r="C1163" t="s">
+      <c r="C1163" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -41479,13 +41473,13 @@
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1165">
+      <c r="A1165" s="1">
         <v>4287</v>
       </c>
-      <c r="B1165">
+      <c r="B1165" s="1">
         <v>3337</v>
       </c>
-      <c r="C1165" t="s">
+      <c r="C1165" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -41534,13 +41528,13 @@
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1170">
+      <c r="A1170" s="1">
         <v>3335</v>
       </c>
-      <c r="B1170">
+      <c r="B1170" s="1">
         <v>1744</v>
       </c>
-      <c r="C1170" t="s">
+      <c r="C1170" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -41578,13 +41572,13 @@
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1174">
+      <c r="A1174" s="1">
         <v>3923</v>
       </c>
-      <c r="B1174">
+      <c r="B1174" s="1">
         <v>2675</v>
       </c>
-      <c r="C1174" t="s">
+      <c r="C1174" s="1" t="s">
         <v>633</v>
       </c>
     </row>
@@ -41622,13 +41616,13 @@
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1178">
+      <c r="A1178" s="1">
         <v>5858</v>
       </c>
-      <c r="B1178">
+      <c r="B1178" s="1">
         <v>6903</v>
       </c>
-      <c r="C1178" t="s">
+      <c r="C1178" s="1" t="s">
         <v>886</v>
       </c>
     </row>
@@ -41644,13 +41638,13 @@
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1180">
+      <c r="A1180" s="1">
         <v>3312</v>
       </c>
-      <c r="B1180">
+      <c r="B1180" s="1">
         <v>1712</v>
       </c>
-      <c r="C1180" t="s">
+      <c r="C1180" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -41677,24 +41671,24 @@
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1183">
+      <c r="A1183" s="1">
         <v>3535</v>
       </c>
-      <c r="B1183">
+      <c r="B1183" s="1">
         <v>2021</v>
       </c>
-      <c r="C1183" t="s">
+      <c r="C1183" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1184">
+      <c r="A1184" s="1">
         <v>3319</v>
       </c>
-      <c r="B1184">
+      <c r="B1184" s="1">
         <v>1723</v>
       </c>
-      <c r="C1184" t="s">
+      <c r="C1184" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -41721,24 +41715,24 @@
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1187">
+      <c r="A1187" s="1">
         <v>3850</v>
       </c>
-      <c r="B1187">
+      <c r="B1187" s="1">
         <v>2553</v>
       </c>
-      <c r="C1187" t="s">
+      <c r="C1187" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1188">
+      <c r="A1188" s="1">
         <v>4154</v>
       </c>
-      <c r="B1188">
+      <c r="B1188" s="1">
         <v>3088</v>
       </c>
-      <c r="C1188" t="s">
+      <c r="C1188" s="1" t="s">
         <v>741</v>
       </c>
     </row>
@@ -41765,13 +41759,13 @@
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1191">
+      <c r="A1191" s="1">
         <v>4177</v>
       </c>
-      <c r="B1191">
+      <c r="B1191" s="1">
         <v>3130</v>
       </c>
-      <c r="C1191" t="s">
+      <c r="C1191" s="1" t="s">
         <v>759</v>
       </c>
     </row>
@@ -41787,13 +41781,13 @@
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1193">
+      <c r="A1193" s="1">
         <v>3712</v>
       </c>
-      <c r="B1193">
+      <c r="B1193" s="1">
         <v>2260</v>
       </c>
-      <c r="C1193" t="s">
+      <c r="C1193" s="1" t="s">
         <v>513</v>
       </c>
     </row>
@@ -41831,35 +41825,35 @@
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1197">
+      <c r="A1197" s="1">
         <v>4993</v>
       </c>
-      <c r="B1197">
+      <c r="B1197" s="1">
         <v>5089</v>
       </c>
-      <c r="C1197" t="s">
+      <c r="C1197" s="1" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1198">
+      <c r="A1198" s="1">
         <v>3640</v>
       </c>
-      <c r="B1198">
+      <c r="B1198" s="1">
         <v>2161</v>
       </c>
-      <c r="C1198" t="s">
+      <c r="C1198" s="1" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1199">
+      <c r="A1199" s="1">
         <v>3636</v>
       </c>
-      <c r="B1199">
+      <c r="B1199" s="1">
         <v>2156</v>
       </c>
-      <c r="C1199" t="s">
+      <c r="C1199" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -41897,46 +41891,46 @@
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1203">
+      <c r="A1203" s="1">
         <v>3348</v>
       </c>
-      <c r="B1203">
+      <c r="B1203" s="1">
         <v>1761</v>
       </c>
-      <c r="C1203" t="s">
+      <c r="C1203" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1204">
+      <c r="A1204" s="1">
         <v>4132</v>
       </c>
-      <c r="B1204">
+      <c r="B1204" s="1">
         <v>3034</v>
       </c>
-      <c r="C1204" t="s">
+      <c r="C1204" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1205">
+      <c r="A1205" s="1">
         <v>3320</v>
       </c>
-      <c r="B1205">
+      <c r="B1205" s="1">
         <v>1724</v>
       </c>
-      <c r="C1205" t="s">
+      <c r="C1205" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1206">
+      <c r="A1206" s="1">
         <v>5497</v>
       </c>
-      <c r="B1206">
+      <c r="B1206" s="1">
         <v>6666</v>
       </c>
-      <c r="C1206" t="s">
+      <c r="C1206" s="1" t="s">
         <v>592</v>
       </c>
     </row>
@@ -41974,13 +41968,13 @@
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1210">
+      <c r="A1210" s="1">
         <v>5618</v>
       </c>
-      <c r="B1210">
+      <c r="B1210" s="1">
         <v>6704</v>
       </c>
-      <c r="C1210" t="s">
+      <c r="C1210" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -41996,13 +41990,13 @@
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1212">
+      <c r="A1212" s="1">
         <v>3556</v>
       </c>
-      <c r="B1212">
+      <c r="B1212" s="1">
         <v>2048</v>
       </c>
-      <c r="C1212" t="s">
+      <c r="C1212" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -42029,24 +42023,24 @@
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1215">
+      <c r="A1215" s="1">
         <v>4005</v>
       </c>
-      <c r="B1215">
+      <c r="B1215" s="1">
         <v>2831</v>
       </c>
-      <c r="C1215" t="s">
+      <c r="C1215" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1216">
+      <c r="A1216" s="1">
         <v>3178</v>
       </c>
-      <c r="B1216">
+      <c r="B1216" s="1">
         <v>1530</v>
       </c>
-      <c r="C1216" t="s">
+      <c r="C1216" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -42095,13 +42089,13 @@
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1221">
+      <c r="A1221" s="1">
         <v>3906</v>
       </c>
-      <c r="B1221">
+      <c r="B1221" s="1">
         <v>2646</v>
       </c>
-      <c r="C1221" t="s">
+      <c r="C1221" s="1" t="s">
         <v>625</v>
       </c>
     </row>
@@ -42150,24 +42144,24 @@
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1226">
+      <c r="A1226" s="1">
         <v>3796</v>
       </c>
-      <c r="B1226">
+      <c r="B1226" s="1">
         <v>2430</v>
       </c>
-      <c r="C1226" t="s">
+      <c r="C1226" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1227">
+      <c r="A1227" s="1">
         <v>4635</v>
       </c>
-      <c r="B1227">
+      <c r="B1227" s="1">
         <v>4885</v>
       </c>
-      <c r="C1227" t="s">
+      <c r="C1227" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -42183,13 +42177,13 @@
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1229">
+      <c r="A1229" s="1">
         <v>3763</v>
       </c>
-      <c r="B1229">
+      <c r="B1229" s="1">
         <v>2364</v>
       </c>
-      <c r="C1229" t="s">
+      <c r="C1229" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -42216,24 +42210,24 @@
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1232">
+      <c r="A1232" s="1">
         <v>3449</v>
       </c>
-      <c r="B1232">
+      <c r="B1232" s="1">
         <v>1907</v>
       </c>
-      <c r="C1232" t="s">
+      <c r="C1232" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1233">
+      <c r="A1233" s="1">
         <v>3772</v>
       </c>
-      <c r="B1233">
+      <c r="B1233" s="1">
         <v>2382</v>
       </c>
-      <c r="C1233" t="s">
+      <c r="C1233" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -42249,46 +42243,46 @@
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1235">
+      <c r="A1235" s="1">
         <v>3881</v>
       </c>
-      <c r="B1235">
+      <c r="B1235" s="1">
         <v>2601</v>
       </c>
-      <c r="C1235" t="s">
+      <c r="C1235" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1236">
+      <c r="A1236" s="1">
         <v>3965</v>
       </c>
-      <c r="B1236">
+      <c r="B1236" s="1">
         <v>2757</v>
       </c>
-      <c r="C1236" t="s">
+      <c r="C1236" s="1" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1237">
+      <c r="A1237" s="1">
         <v>3467</v>
       </c>
-      <c r="B1237">
+      <c r="B1237" s="1">
         <v>1932</v>
       </c>
-      <c r="C1237" t="s">
+      <c r="C1237" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1238">
+      <c r="A1238" s="1">
         <v>4112</v>
       </c>
-      <c r="B1238">
+      <c r="B1238" s="1">
         <v>3001</v>
       </c>
-      <c r="C1238" t="s">
+      <c r="C1238" s="1" t="s">
         <v>729</v>
       </c>
     </row>
@@ -42337,24 +42331,24 @@
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1243">
+      <c r="A1243" s="1">
         <v>3242</v>
       </c>
-      <c r="B1243">
+      <c r="B1243" s="1">
         <v>1616</v>
       </c>
-      <c r="C1243" t="s">
+      <c r="C1243" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1244">
+      <c r="A1244" s="1">
         <v>5907</v>
       </c>
-      <c r="B1244">
+      <c r="B1244" s="1">
         <v>6930</v>
       </c>
-      <c r="C1244" t="s">
+      <c r="C1244" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -42381,24 +42375,24 @@
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1247">
+      <c r="A1247" s="1">
         <v>4017</v>
       </c>
-      <c r="B1247">
+      <c r="B1247" s="1">
         <v>2852</v>
       </c>
-      <c r="C1247" t="s">
+      <c r="C1247" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1248">
+      <c r="A1248" s="1">
         <v>4242</v>
       </c>
-      <c r="B1248">
+      <c r="B1248" s="1">
         <v>3214</v>
       </c>
-      <c r="C1248" t="s">
+      <c r="C1248" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -42425,13 +42419,13 @@
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1251">
+      <c r="A1251" s="1">
         <v>3647</v>
       </c>
-      <c r="B1251">
+      <c r="B1251" s="1">
         <v>2170</v>
       </c>
-      <c r="C1251" t="s">
+      <c r="C1251" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -42458,13 +42452,13 @@
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1254">
+      <c r="A1254" s="1">
         <v>4053</v>
       </c>
-      <c r="B1254">
+      <c r="B1254" s="1">
         <v>2914</v>
       </c>
-      <c r="C1254" t="s">
+      <c r="C1254" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -42513,13 +42507,13 @@
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1259">
+      <c r="A1259" s="1">
         <v>3905</v>
       </c>
-      <c r="B1259">
+      <c r="B1259" s="1">
         <v>2644</v>
       </c>
-      <c r="C1259" t="s">
+      <c r="C1259" s="1" t="s">
         <v>624</v>
       </c>
     </row>
@@ -42557,13 +42551,13 @@
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1263">
+      <c r="A1263" s="1">
         <v>3715</v>
       </c>
-      <c r="B1263">
+      <c r="B1263" s="1">
         <v>2266</v>
       </c>
-      <c r="C1263" t="s">
+      <c r="C1263" s="1" t="s">
         <v>516</v>
       </c>
     </row>
@@ -42601,13 +42595,13 @@
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1267">
+      <c r="A1267" s="1">
         <v>3590</v>
       </c>
-      <c r="B1267">
+      <c r="B1267" s="1">
         <v>2089</v>
       </c>
-      <c r="C1267" t="s">
+      <c r="C1267" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -42623,24 +42617,24 @@
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1269">
+      <c r="A1269" s="1">
         <v>3991</v>
       </c>
-      <c r="B1269">
+      <c r="B1269" s="1">
         <v>2807</v>
       </c>
-      <c r="C1269" t="s">
+      <c r="C1269" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1270">
+      <c r="A1270" s="1">
         <v>3136</v>
       </c>
-      <c r="B1270">
+      <c r="B1270" s="1">
         <v>1474</v>
       </c>
-      <c r="C1270" t="s">
+      <c r="C1270" s="1" t="s">
         <v>532</v>
       </c>
     </row>
@@ -42667,13 +42661,13 @@
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1273">
+      <c r="A1273" s="1">
         <v>3480</v>
       </c>
-      <c r="B1273">
+      <c r="B1273" s="1">
         <v>1948</v>
       </c>
-      <c r="C1273" t="s">
+      <c r="C1273" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -42689,24 +42683,24 @@
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1275">
+      <c r="A1275" s="1">
         <v>3851</v>
       </c>
-      <c r="B1275">
+      <c r="B1275" s="1">
         <v>2554</v>
       </c>
-      <c r="C1275" t="s">
+      <c r="C1275" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1276">
+      <c r="A1276" s="1">
         <v>3727</v>
       </c>
-      <c r="B1276">
+      <c r="B1276" s="1">
         <v>2293</v>
       </c>
-      <c r="C1276" t="s">
+      <c r="C1276" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -42733,13 +42727,13 @@
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1279">
+      <c r="A1279" s="1">
         <v>3371</v>
       </c>
-      <c r="B1279">
+      <c r="B1279" s="1">
         <v>1788</v>
       </c>
-      <c r="C1279" t="s">
+      <c r="C1279" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -42755,24 +42749,24 @@
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1281">
+      <c r="A1281" s="1">
         <v>3789</v>
       </c>
-      <c r="B1281">
+      <c r="B1281" s="1">
         <v>2418</v>
       </c>
-      <c r="C1281" t="s">
+      <c r="C1281" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1282">
+      <c r="A1282" s="1">
         <v>3787</v>
       </c>
-      <c r="B1282">
+      <c r="B1282" s="1">
         <v>2414</v>
       </c>
-      <c r="C1282" t="s">
+      <c r="C1282" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -42821,13 +42815,13 @@
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1287">
+      <c r="A1287" s="1">
         <v>4163</v>
       </c>
-      <c r="B1287">
+      <c r="B1287" s="1">
         <v>3106</v>
       </c>
-      <c r="C1287" t="s">
+      <c r="C1287" s="1" t="s">
         <v>749</v>
       </c>
     </row>
@@ -42843,24 +42837,24 @@
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1289">
+      <c r="A1289" s="1">
         <v>4098</v>
       </c>
-      <c r="B1289">
+      <c r="B1289" s="1">
         <v>2975</v>
       </c>
-      <c r="C1289" t="s">
+      <c r="C1289" s="1" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1290">
+      <c r="A1290" s="1">
         <v>3628</v>
       </c>
-      <c r="B1290">
+      <c r="B1290" s="1">
         <v>2148</v>
       </c>
-      <c r="C1290" t="s">
+      <c r="C1290" s="1" t="s">
         <v>486</v>
       </c>
     </row>
@@ -42876,13 +42870,13 @@
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1292">
+      <c r="A1292" s="1">
         <v>3655</v>
       </c>
-      <c r="B1292">
+      <c r="B1292" s="1">
         <v>2181</v>
       </c>
-      <c r="C1292" t="s">
+      <c r="C1292" s="1" t="s">
         <v>500</v>
       </c>
     </row>
@@ -42931,13 +42925,13 @@
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1297">
+      <c r="A1297" s="1">
         <v>4026</v>
       </c>
-      <c r="B1297">
+      <c r="B1297" s="1">
         <v>2866</v>
       </c>
-      <c r="C1297" t="s">
+      <c r="C1297" s="1" t="s">
         <v>698</v>
       </c>
     </row>
@@ -42986,24 +42980,24 @@
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1302">
+      <c r="A1302" s="1">
         <v>3759</v>
       </c>
-      <c r="B1302">
+      <c r="B1302" s="1">
         <v>2357</v>
       </c>
-      <c r="C1302" t="s">
+      <c r="C1302" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1303">
+      <c r="A1303" s="1">
         <v>3575</v>
       </c>
-      <c r="B1303">
+      <c r="B1303" s="1">
         <v>2070</v>
       </c>
-      <c r="C1303" t="s">
+      <c r="C1303" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -43052,13 +43046,13 @@
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1308">
+      <c r="A1308" s="1">
         <v>3875</v>
       </c>
-      <c r="B1308">
+      <c r="B1308" s="1">
         <v>2588</v>
       </c>
-      <c r="C1308" t="s">
+      <c r="C1308" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -43162,13 +43156,13 @@
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1318">
+      <c r="A1318" s="1">
         <v>4185</v>
       </c>
-      <c r="B1318">
+      <c r="B1318" s="1">
         <v>3140</v>
       </c>
-      <c r="C1318" t="s">
+      <c r="C1318" s="1" t="s">
         <v>765</v>
       </c>
     </row>
@@ -43206,13 +43200,13 @@
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1322">
+      <c r="A1322" s="1">
         <v>4636</v>
       </c>
-      <c r="B1322">
+      <c r="B1322" s="1">
         <v>4886</v>
       </c>
-      <c r="C1322" t="s">
+      <c r="C1322" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -43261,24 +43255,24 @@
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1327">
+      <c r="A1327" s="1">
         <v>5684</v>
       </c>
-      <c r="B1327">
+      <c r="B1327" s="1">
         <v>6762</v>
       </c>
-      <c r="C1327" t="s">
+      <c r="C1327" s="1" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1328">
+      <c r="A1328" s="1">
         <v>3737</v>
       </c>
-      <c r="B1328">
+      <c r="B1328" s="1">
         <v>2313</v>
       </c>
-      <c r="C1328" t="s">
+      <c r="C1328" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -43294,24 +43288,24 @@
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1330">
+      <c r="A1330" s="1">
         <v>3738</v>
       </c>
-      <c r="B1330">
+      <c r="B1330" s="1">
         <v>2314</v>
       </c>
-      <c r="C1330" t="s">
+      <c r="C1330" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1331">
+      <c r="A1331" s="1">
         <v>3963</v>
       </c>
-      <c r="B1331">
+      <c r="B1331" s="1">
         <v>2750</v>
       </c>
-      <c r="C1331" t="s">
+      <c r="C1331" s="1" t="s">
         <v>656</v>
       </c>
     </row>
@@ -43338,24 +43332,24 @@
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1334">
+      <c r="A1334" s="1">
         <v>3188</v>
       </c>
-      <c r="B1334">
+      <c r="B1334" s="1">
         <v>1544</v>
       </c>
-      <c r="C1334" t="s">
+      <c r="C1334" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1335">
+      <c r="A1335" s="1">
         <v>4037</v>
       </c>
-      <c r="B1335">
+      <c r="B1335" s="1">
         <v>2884</v>
       </c>
-      <c r="C1335" t="s">
+      <c r="C1335" s="1" t="s">
         <v>703</v>
       </c>
     </row>
@@ -43371,13 +43365,13 @@
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1337">
+      <c r="A1337" s="1">
         <v>4283</v>
       </c>
-      <c r="B1337">
+      <c r="B1337" s="1">
         <v>3333</v>
       </c>
-      <c r="C1337" t="s">
+      <c r="C1337" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -43393,13 +43387,13 @@
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1339">
+      <c r="A1339" s="1">
         <v>4224</v>
       </c>
-      <c r="B1339">
+      <c r="B1339" s="1">
         <v>3192</v>
       </c>
-      <c r="C1339" t="s">
+      <c r="C1339" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -43525,13 +43519,13 @@
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1351">
+      <c r="A1351" s="1">
         <v>3973</v>
       </c>
-      <c r="B1351">
+      <c r="B1351" s="1">
         <v>2773</v>
       </c>
-      <c r="C1351" t="s">
+      <c r="C1351" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -43547,13 +43541,13 @@
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1353">
+      <c r="A1353" s="1">
         <v>4192</v>
       </c>
-      <c r="B1353">
+      <c r="B1353" s="1">
         <v>3149</v>
       </c>
-      <c r="C1353" t="s">
+      <c r="C1353" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -43635,13 +43629,13 @@
       </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1361">
+      <c r="A1361" s="1">
         <v>4046</v>
       </c>
-      <c r="B1361">
+      <c r="B1361" s="1">
         <v>2899</v>
       </c>
-      <c r="C1361" t="s">
+      <c r="C1361" s="1" t="s">
         <v>707</v>
       </c>
     </row>
@@ -43701,24 +43695,24 @@
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1367">
+      <c r="A1367" s="1">
         <v>5685</v>
       </c>
-      <c r="B1367">
+      <c r="B1367" s="1">
         <v>6763</v>
       </c>
-      <c r="C1367" t="s">
+      <c r="C1367" s="1" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1368">
+      <c r="A1368" s="1">
         <v>3195</v>
       </c>
-      <c r="B1368">
+      <c r="B1368" s="1">
         <v>1554</v>
       </c>
-      <c r="C1368" t="s">
+      <c r="C1368" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -43734,35 +43728,35 @@
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1370">
+      <c r="A1370" s="1">
         <v>3232</v>
       </c>
-      <c r="B1370">
+      <c r="B1370" s="1">
         <v>1603</v>
       </c>
-      <c r="C1370" t="s">
+      <c r="C1370" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1371">
+      <c r="A1371" s="1">
         <v>3431</v>
       </c>
-      <c r="B1371">
+      <c r="B1371" s="1">
         <v>1882</v>
       </c>
-      <c r="C1371" t="s">
+      <c r="C1371" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1372">
+      <c r="A1372" s="1">
         <v>3719</v>
       </c>
-      <c r="B1372">
+      <c r="B1372" s="1">
         <v>2276</v>
       </c>
-      <c r="C1372" t="s">
+      <c r="C1372" s="1" t="s">
         <v>519</v>
       </c>
     </row>
@@ -43800,24 +43794,24 @@
       </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1376">
+      <c r="A1376" s="1">
         <v>3980</v>
       </c>
-      <c r="B1376">
+      <c r="B1376" s="1">
         <v>2787</v>
       </c>
-      <c r="C1376" t="s">
+      <c r="C1376" s="1" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1377">
+      <c r="A1377" s="1">
         <v>5744</v>
       </c>
-      <c r="B1377">
+      <c r="B1377" s="1">
         <v>6814</v>
       </c>
-      <c r="C1377" t="s">
+      <c r="C1377" s="1" t="s">
         <v>888</v>
       </c>
     </row>
@@ -43888,13 +43882,13 @@
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1384">
+      <c r="A1384" s="1">
         <v>3834</v>
       </c>
-      <c r="B1384">
+      <c r="B1384" s="1">
         <v>2505</v>
       </c>
-      <c r="C1384" t="s">
+      <c r="C1384" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -43910,24 +43904,24 @@
       </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1386">
+      <c r="A1386" s="1">
         <v>5404</v>
       </c>
-      <c r="B1386">
+      <c r="B1386" s="1">
         <v>6620</v>
       </c>
-      <c r="C1386" t="s">
+      <c r="C1386" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1387">
+      <c r="A1387" s="1">
         <v>3993</v>
       </c>
-      <c r="B1387">
+      <c r="B1387" s="1">
         <v>2809</v>
       </c>
-      <c r="C1387" t="s">
+      <c r="C1387" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -43976,24 +43970,24 @@
       </c>
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1392">
+      <c r="A1392" s="1">
         <v>4013</v>
       </c>
-      <c r="B1392">
+      <c r="B1392" s="1">
         <v>2845</v>
       </c>
-      <c r="C1392" t="s">
+      <c r="C1392" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1393">
+      <c r="A1393" s="1">
         <v>3900</v>
       </c>
-      <c r="B1393">
+      <c r="B1393" s="1">
         <v>2634</v>
       </c>
-      <c r="C1393" t="s">
+      <c r="C1393" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -44009,46 +44003,46 @@
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1395">
+      <c r="A1395" s="1">
         <v>3234</v>
       </c>
-      <c r="B1395">
+      <c r="B1395" s="1">
         <v>1606</v>
       </c>
-      <c r="C1395" t="s">
+      <c r="C1395" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1396">
+      <c r="A1396" s="1">
         <v>3728</v>
       </c>
-      <c r="B1396">
+      <c r="B1396" s="1">
         <v>2295</v>
       </c>
-      <c r="C1396" t="s">
+      <c r="C1396" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1397">
+      <c r="A1397" s="1">
         <v>4049</v>
       </c>
-      <c r="B1397">
+      <c r="B1397" s="1">
         <v>2905</v>
       </c>
-      <c r="C1397" t="s">
+      <c r="C1397" s="1" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1398">
+      <c r="A1398" s="1">
         <v>3432</v>
       </c>
-      <c r="B1398">
+      <c r="B1398" s="1">
         <v>1883</v>
       </c>
-      <c r="C1398" t="s">
+      <c r="C1398" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -44086,13 +44080,13 @@
       </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1402">
+      <c r="A1402" s="1">
         <v>3605</v>
       </c>
-      <c r="B1402">
+      <c r="B1402" s="1">
         <v>2114</v>
       </c>
-      <c r="C1402" t="s">
+      <c r="C1402" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -44108,13 +44102,13 @@
       </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1404">
+      <c r="A1404" s="1">
         <v>3644</v>
       </c>
-      <c r="B1404">
+      <c r="B1404" s="1">
         <v>2165</v>
       </c>
-      <c r="C1404" t="s">
+      <c r="C1404" s="1" t="s">
         <v>497</v>
       </c>
     </row>
@@ -44163,24 +44157,24 @@
       </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1409">
+      <c r="A1409" s="1">
         <v>3253</v>
       </c>
-      <c r="B1409">
+      <c r="B1409" s="1">
         <v>1631</v>
       </c>
-      <c r="C1409" t="s">
+      <c r="C1409" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1410">
+      <c r="A1410" s="1">
         <v>4239</v>
       </c>
-      <c r="B1410">
+      <c r="B1410" s="1">
         <v>3211</v>
       </c>
-      <c r="C1410" t="s">
+      <c r="C1410" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -44207,13 +44201,13 @@
       </c>
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1413">
+      <c r="A1413" s="1">
         <v>3731</v>
       </c>
-      <c r="B1413">
+      <c r="B1413" s="1">
         <v>2300</v>
       </c>
-      <c r="C1413" t="s">
+      <c r="C1413" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -44262,24 +44256,24 @@
       </c>
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1418">
+      <c r="A1418" s="1">
         <v>4056</v>
       </c>
-      <c r="B1418">
+      <c r="B1418" s="1">
         <v>2919</v>
       </c>
-      <c r="C1418" t="s">
+      <c r="C1418" s="1" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1419">
+      <c r="A1419" s="1">
         <v>3767</v>
       </c>
-      <c r="B1419">
+      <c r="B1419" s="1">
         <v>2373</v>
       </c>
-      <c r="C1419" t="s">
+      <c r="C1419" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -44306,13 +44300,13 @@
       </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1422">
+      <c r="A1422" s="1">
         <v>4179</v>
       </c>
-      <c r="B1422">
+      <c r="B1422" s="1">
         <v>3132</v>
       </c>
-      <c r="C1422" t="s">
+      <c r="C1422" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -44328,24 +44322,24 @@
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1424">
+      <c r="A1424" s="1">
         <v>3603</v>
       </c>
-      <c r="B1424">
+      <c r="B1424" s="1">
         <v>2110</v>
       </c>
-      <c r="C1424" t="s">
+      <c r="C1424" s="1" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1425">
+      <c r="A1425" s="1">
         <v>3327</v>
       </c>
-      <c r="B1425">
+      <c r="B1425" s="1">
         <v>1731</v>
       </c>
-      <c r="C1425" t="s">
+      <c r="C1425" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -44361,13 +44355,13 @@
       </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1427">
+      <c r="A1427" s="1">
         <v>3624</v>
       </c>
-      <c r="B1427">
+      <c r="B1427" s="1">
         <v>2143</v>
       </c>
-      <c r="C1427" t="s">
+      <c r="C1427" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -44394,24 +44388,24 @@
       </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1430">
+      <c r="A1430" s="1">
         <v>3642</v>
       </c>
-      <c r="B1430">
+      <c r="B1430" s="1">
         <v>2163</v>
       </c>
-      <c r="C1430" t="s">
+      <c r="C1430" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1431">
+      <c r="A1431" s="1">
         <v>4759</v>
       </c>
-      <c r="B1431">
+      <c r="B1431" s="1">
         <v>4995</v>
       </c>
-      <c r="C1431" t="s">
+      <c r="C1431" s="1" t="s">
         <v>601</v>
       </c>
     </row>
@@ -44482,35 +44476,35 @@
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1438">
+      <c r="A1438" s="1">
         <v>4292</v>
       </c>
-      <c r="B1438">
+      <c r="B1438" s="1">
         <v>3347</v>
       </c>
-      <c r="C1438" t="s">
+      <c r="C1438" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1439">
+      <c r="A1439" s="1">
         <v>4166</v>
       </c>
-      <c r="B1439">
+      <c r="B1439" s="1">
         <v>3112</v>
       </c>
-      <c r="C1439" t="s">
+      <c r="C1439" s="1" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1440">
+      <c r="A1440" s="1">
         <v>3374</v>
       </c>
-      <c r="B1440">
+      <c r="B1440" s="1">
         <v>1791</v>
       </c>
-      <c r="C1440" t="s">
+      <c r="C1440" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -44592,24 +44586,24 @@
       </c>
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1448">
+      <c r="A1448" s="1">
         <v>5747</v>
       </c>
-      <c r="B1448">
+      <c r="B1448" s="1">
         <v>6817</v>
       </c>
-      <c r="C1448" t="s">
+      <c r="C1448" s="1" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1449">
+      <c r="A1449" s="1">
         <v>4498</v>
       </c>
-      <c r="B1449">
+      <c r="B1449" s="1">
         <v>3911</v>
       </c>
-      <c r="C1449" t="s">
+      <c r="C1449" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -44680,24 +44674,24 @@
       </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1456">
+      <c r="A1456" s="1">
         <v>3943</v>
       </c>
-      <c r="B1456">
+      <c r="B1456" s="1">
         <v>2712</v>
       </c>
-      <c r="C1456" t="s">
+      <c r="C1456" s="1" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1457">
+      <c r="A1457" s="1">
         <v>5398</v>
       </c>
-      <c r="B1457">
+      <c r="B1457" s="1">
         <v>6614</v>
       </c>
-      <c r="C1457" t="s">
+      <c r="C1457" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -44735,35 +44729,35 @@
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1461">
+      <c r="A1461" s="1">
         <v>4174</v>
       </c>
-      <c r="B1461">
+      <c r="B1461" s="1">
         <v>3126</v>
       </c>
-      <c r="C1461" t="s">
+      <c r="C1461" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1462">
+      <c r="A1462" s="1">
         <v>4611</v>
       </c>
-      <c r="B1462">
+      <c r="B1462" s="1">
         <v>4358</v>
       </c>
-      <c r="C1462" t="s">
+      <c r="C1462" s="1" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1463">
+      <c r="A1463" s="1">
         <v>3933</v>
       </c>
-      <c r="B1463">
+      <c r="B1463" s="1">
         <v>2697</v>
       </c>
-      <c r="C1463" t="s">
+      <c r="C1463" s="1" t="s">
         <v>636</v>
       </c>
     </row>
@@ -44779,13 +44773,13 @@
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1465">
+      <c r="A1465" s="1">
         <v>4181</v>
       </c>
-      <c r="B1465">
+      <c r="B1465" s="1">
         <v>3134</v>
       </c>
-      <c r="C1465" t="s">
+      <c r="C1465" s="1" t="s">
         <v>763</v>
       </c>
     </row>
@@ -44801,13 +44795,13 @@
       </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1467">
+      <c r="A1467" s="1">
         <v>4060</v>
       </c>
-      <c r="B1467">
+      <c r="B1467" s="1">
         <v>2923</v>
       </c>
-      <c r="C1467" t="s">
+      <c r="C1467" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -44834,24 +44828,24 @@
       </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1470">
+      <c r="A1470" s="1">
         <v>3742</v>
       </c>
-      <c r="B1470">
+      <c r="B1470" s="1">
         <v>2322</v>
       </c>
-      <c r="C1470" t="s">
+      <c r="C1470" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1471">
+      <c r="A1471" s="1">
         <v>4062</v>
       </c>
-      <c r="B1471">
+      <c r="B1471" s="1">
         <v>2926</v>
       </c>
-      <c r="C1471" t="s">
+      <c r="C1471" s="1" t="s">
         <v>720</v>
       </c>
     </row>
@@ -44922,13 +44916,13 @@
       </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1478">
+      <c r="A1478" s="1">
         <v>5889</v>
       </c>
-      <c r="B1478">
+      <c r="B1478" s="1">
         <v>6915</v>
       </c>
-      <c r="C1478" t="s">
+      <c r="C1478" s="1" t="s">
         <v>567</v>
       </c>
     </row>
@@ -44944,13 +44938,13 @@
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1480">
+      <c r="A1480" s="1">
         <v>4121</v>
       </c>
-      <c r="B1480">
+      <c r="B1480" s="1">
         <v>3013</v>
       </c>
-      <c r="C1480" t="s">
+      <c r="C1480" s="1" t="s">
         <v>732</v>
       </c>
     </row>
@@ -45010,13 +45004,13 @@
       </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1486">
+      <c r="A1486" s="1">
         <v>4036</v>
       </c>
-      <c r="B1486">
+      <c r="B1486" s="1">
         <v>2882</v>
       </c>
-      <c r="C1486" t="s">
+      <c r="C1486" s="1" t="s">
         <v>702</v>
       </c>
     </row>
